--- a/CICD 申請單.xlsx
+++ b/CICD 申請單.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="工作表2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Gitlab 權限申請單" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="jenkins 權限申請單" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <r>
       <rPr>
@@ -464,6 +464,12 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">使用者新增時需求資料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">該使用者擁有的群組與專案權限</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jenkins</t>
   </si>
   <si>
@@ -475,6 +481,9 @@
 以職位區分管理權限:
 DP可以做建置動作(build)
 SP可以做PIPELINE新增動作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使用者申請需求資料</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -610,15 +619,19 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -637,20 +650,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>941040</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>367920</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>991800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="影像 2" descr=""/>
+        <xdr:cNvPr id="0" name="影像 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -659,8 +672,87 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4481280" y="3169440"/>
-          <a:ext cx="8679240" cy="2011320"/>
+          <a:off x="0" y="5186520"/>
+          <a:ext cx="3131640" cy="2323800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>761760</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>156600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="影像 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3721680" y="5186520"/>
+          <a:ext cx="9693000" cy="2583000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>941040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>16200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>367560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="影像 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481280" y="3666960"/>
+          <a:ext cx="8678880" cy="2010960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -681,13 +773,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>725400</xdr:colOff>
+      <xdr:colOff>725040</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="影像 3" descr=""/>
+        <xdr:cNvPr id="3" name="影像 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -696,8 +788,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7851600" y="5398920"/>
-          <a:ext cx="2415240" cy="2072160"/>
+          <a:off x="7851600" y="5896080"/>
+          <a:ext cx="2414880" cy="2071800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,13 +810,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:colOff>117720</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="影像 1" descr=""/>
+        <xdr:cNvPr id="4" name="影像 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -734,7 +826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4449600" y="227520"/>
-          <a:ext cx="9273960" cy="2857320"/>
+          <a:ext cx="9273600" cy="2856960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -755,13 +847,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>480960</xdr:colOff>
+      <xdr:colOff>480600</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="影像 4" descr=""/>
+        <xdr:cNvPr id="5" name="影像 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -770,8 +862,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4467960" y="5352120"/>
-          <a:ext cx="3116160" cy="2567520"/>
+          <a:off x="4467960" y="5849280"/>
+          <a:ext cx="3115800" cy="2567160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,13 +884,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>615240</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="影像 5" descr=""/>
+        <xdr:cNvPr id="6" name="影像 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -807,8 +899,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76680" y="1830600"/>
-          <a:ext cx="4079160" cy="3664440"/>
+          <a:off x="76680" y="2328120"/>
+          <a:ext cx="4078800" cy="3664080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -936,8 +1028,8 @@
   </sheetPr>
   <dimension ref="A2:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,8 +1039,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="38.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="39.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="26.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="39.62"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -975,7 +1067,7 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -995,7 +1087,7 @@
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1046,14 +1138,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="30.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="0"/>
+      <c r="A7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="146.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
@@ -1072,6 +1171,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1080,10 +1180,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K37" activeCellId="0" sqref="K37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.03515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1095,40 +1195,27 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0"/>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0"/>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="0"/>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="54.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A1" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0"/>
+    <row r="3" customFormat="false" ht="44.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
